--- a/Input/Groceries_Input_Data.xlsx
+++ b/Input/Groceries_Input_Data.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OutputSheet" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +75,21 @@
   </si>
   <si>
     <t>6333Meat</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -97,15 +113,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,13 +135,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -666,4 +709,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Input/Groceries_Input_Data.xlsx
+++ b/Input/Groceries_Input_Data.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OutputSheet" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +94,24 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>pear</t>
   </si>
 </sst>
 </file>
@@ -127,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,17 +172,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,4 +838,365 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>